--- a/ProjectTracking.xlsx
+++ b/ProjectTracking.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Rutgers\Sem2\MyCourses\CS527_Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AF7771-4880-49BD-BA73-42CAB4F0D6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653E3112-F2F1-40E4-9DB0-73335F63A9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7AF84716-B7ED-417A-B3EB-672A2C4B77E5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7AF84716-B7ED-417A-B3EB-672A2C4B77E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="3" r:id="rId1"/>
-    <sheet name="Project Layout" sheetId="1" r:id="rId2"/>
-    <sheet name="Action Items" sheetId="2" r:id="rId3"/>
+    <sheet name="ActionItemsChecklist" sheetId="5" r:id="rId2"/>
+    <sheet name="Project Layout" sheetId="1" r:id="rId3"/>
+    <sheet name="NavigationPlanning" sheetId="4" r:id="rId4"/>
+    <sheet name="Action Items" sheetId="2" state="hidden" r:id="rId5"/>
+    <sheet name="Status" sheetId="6" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,8 +40,71 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={195777E9-59E0-419E-AACE-2F95DAE1E37C}</author>
+  </authors>
+  <commentList>
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{195777E9-59E0-419E-AACE-2F95DAE1E37C}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    It does nothing when not logged in, when clicked, it takes user to login screen.
+If the user is logged in, it shows the bookings/reservations
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={C911FD5F-2E1F-4B1D-8ED5-16580EAC6379}</author>
+    <author>tc={24CD8218-28DA-4567-8477-9079C4078A13}</author>
+    <author>tc={17B30268-7970-48CC-956C-C5091A27E02D}</author>
+  </authors>
+  <commentList>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{C911FD5F-2E1F-4B1D-8ED5-16580EAC6379}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Session Attributes
+</t>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{24CD8218-28DA-4567-8477-9079C4078A13}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    By default role will be customer
+Reply:
+    Continue
+</t>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="2" shapeId="0" xr:uid="{17B30268-7970-48CC-956C-C5091A27E02D}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    By default role will be customer
+Reply:
+    Continue
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
   <si>
     <t>Functionality</t>
   </si>
@@ -116,10 +182,6 @@
     <t>register (sign up)</t>
   </si>
   <si>
-    <t>1. Sending SQL for the database (concerned tables for now) with data
-2. Reservation (Possibly)</t>
-  </si>
-  <si>
     <t>Person Responsible</t>
   </si>
   <si>
@@ -127,13 +189,202 @@
   </si>
   <si>
     <t>Click on Buttons for easy navigation</t>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>Nav bar</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Reserve</t>
+  </si>
+  <si>
+    <t>Login/Register</t>
+  </si>
+  <si>
+    <t>My Booking</t>
+  </si>
+  <si>
+    <t>Home, Reservation</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>Sales Report</t>
+  </si>
+  <si>
+    <t>Reservations Report</t>
+  </si>
+  <si>
+    <t>Revenue Listing</t>
+  </si>
+  <si>
+    <t>Register page functionality</t>
+  </si>
+  <si>
+    <t>Retrieve the records and each record has an edit button</t>
+  </si>
+  <si>
+    <t>Functionality from Register Page</t>
+  </si>
+  <si>
+    <t>Sending SQL for the database (concerned tables for now) with data</t>
+  </si>
+  <si>
+    <t>edit and delete information for train schedules</t>
+  </si>
+  <si>
+    <t>add, edit and delete information for a customer representative</t>
+  </si>
+  <si>
+    <t>I. Account functionality (10 points)</t>
+  </si>
+  <si>
+    <t>[] register customers</t>
+  </si>
+  <si>
+    <t>[] login (for all customers, admin, customer reps)</t>
+  </si>
+  <si>
+    <t>[] logout (for all customers, admin, customer reps)</t>
+  </si>
+  <si>
+    <t>II. Browsing and search functionality (15 points)</t>
+  </si>
+  <si>
+    <t>[] search for train schedules by origin, destination, date of travel (5 points)</t>
+  </si>
+  <si>
+    <t>[] browse the resulting schedules (5 points)</t>
+  </si>
+  <si>
+    <t>[] see all the stops a train will make, fare etc.</t>
+  </si>
+  <si>
+    <t>[] sort by different criteria (by arrival time, departure time, fare) (5 points)</t>
+  </si>
+  <si>
+    <t>III. Reservations (15 points)</t>
+  </si>
+  <si>
+    <t>[] get a discount in case of child/senior/disabled (2 points)</t>
+  </si>
+  <si>
+    <t>[] cancel existing reservation (3 points)</t>
+  </si>
+  <si>
+    <t>[] view current and past reservations with their details (separately). (5 points)</t>
+  </si>
+  <si>
+    <t>IV. Admin functions (30 points)</t>
+  </si>
+  <si>
+    <t>[] Admin (create an admin account ahead of time)</t>
+  </si>
+  <si>
+    <t>[] add, edit and delete information for a customer representative (9 points)</t>
+  </si>
+  <si>
+    <t>[] obtain sales reports per month (3 points)</t>
+  </si>
+  <si>
+    <t>[] produce a list of reservations: (5 points)</t>
+  </si>
+  <si>
+    <t>[] by transit line</t>
+  </si>
+  <si>
+    <t>[] by customer name</t>
+  </si>
+  <si>
+    <t>[] produce a listing of revenue per: (5 points)</t>
+  </si>
+  <si>
+    <t>[] transit line</t>
+  </si>
+  <si>
+    <t>[] customer name</t>
+  </si>
+  <si>
+    <t>[] best customer (4 points)</t>
+  </si>
+  <si>
+    <t>[] best 5 most active transit lines (4 points)</t>
+  </si>
+  <si>
+    <t>VI. Customer representative: (30 points)</t>
+  </si>
+  <si>
+    <t>[] edit and delete information for train schedules (6 points)</t>
+  </si>
+  <si>
+    <t>[] customers browse questions and answers (4 points)</t>
+  </si>
+  <si>
+    <t>[] customers search questions by keywords (4 points)</t>
+  </si>
+  <si>
+    <t>[] customers send a question to the customer service (3 points)</t>
+  </si>
+  <si>
+    <t>[] reps reply to customer questions (3 points)</t>
+  </si>
+  <si>
+    <t>[] produce a list of train schedules for a given station (as origin/destination) (5 points)</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Checklist Items</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Yet to Start</t>
+  </si>
+  <si>
+    <t>Review Required</t>
+  </si>
+  <si>
+    <t>[] a customer should be able to make a reservation for a specific route (round-trip/one way) (5 points)</t>
+  </si>
+  <si>
+    <t>[] produce a list of all customers who have reservations on a given transit line and date. (5 points)</t>
+  </si>
+  <si>
+    <t>Admin view</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +408,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -171,8 +452,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -291,11 +596,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -327,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -342,11 +683,102 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -365,35 +797,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -476,13 +879,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -495,6 +891,42 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -515,15 +947,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -539,7 +971,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="899160"/>
+          <a:off x="624840" y="1859280"/>
           <a:ext cx="1752600" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -586,16 +1018,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -611,7 +1043,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="1706880"/>
+          <a:off x="594360" y="1013460"/>
           <a:ext cx="1790700" cy="541020"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -648,24 +1080,161 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB42B940-D486-DB4F-1791-F2BCF70CF3CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="556260" y="2560320"/>
+          <a:ext cx="1836420" cy="594360"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Navigation Planning</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>39846</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>199338</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>617</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05717957-B6B9-E6BB-3909-01E4A42D2756}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="106680" y="405606"/>
+          <a:ext cx="4969458" cy="2521091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Kashish Vaish" id="{22874DDA-887B-4910-A523-4D8F9B99BF0F}" userId="80bbc6821395a7e6" providerId="Windows Live"/>
+</personList>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A1C0E18-BDF4-4698-833C-F68196CC4EC2}" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="1" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:D6" xr:uid="{2A1C0E18-BDF4-4698-833C-F68196CC4EC2}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{573CDD60-BAD1-4A64-BAC3-107584C642C7}" name="Rubric" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1EA466AA-B27A-48A7-9151-53126885E5C5}" name="Functionality" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{58EE1204-2AAC-40F6-9202-619D831EB2F7}" name="JSP" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2A67F18A-2920-42E7-A95C-7FE735C95C30}" name="Remarks" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{732D0B23-0802-4FFD-92D4-D8D19926A567}" name="Table3" displayName="Table3" ref="A1:E30" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E30" xr:uid="{732D0B23-0802-4FFD-92D4-D8D19926A567}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A8D8AA8B-33F8-4B4A-9D46-E95068F86B1A}" name="Category" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{9FF88F42-28FA-4A76-9418-CE1FEF1F3D27}" name="Checklist Items"/>
+    <tableColumn id="3" xr3:uid="{5918284E-E3C8-4F63-BE2C-6930F9777614}" name="Status"/>
+    <tableColumn id="4" xr3:uid="{654C6F28-0F95-437C-8F6C-294A0592AAF8}" name="Person Responsible"/>
+    <tableColumn id="5" xr3:uid="{5466B0D1-884B-4217-9102-2DF001277C8E}" name="Remarks"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{002301CA-8C19-462A-B964-92FEDE727023}" name="Table2" displayName="Table2" ref="A1:B5" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A1C0E18-BDF4-4698-833C-F68196CC4EC2}" name="Table1" displayName="Table1" ref="A1:D6" totalsRowShown="0" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="A1:D6" xr:uid="{2A1C0E18-BDF4-4698-833C-F68196CC4EC2}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{573CDD60-BAD1-4A64-BAC3-107584C642C7}" name="Rubric" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{1EA466AA-B27A-48A7-9151-53126885E5C5}" name="Functionality" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{58EE1204-2AAC-40F6-9202-619D831EB2F7}" name="JSP" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{2A67F18A-2920-42E7-A95C-7FE735C95C30}" name="Remarks" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{002301CA-8C19-462A-B964-92FEDE727023}" name="Table2" displayName="Table2" ref="A1:B5" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:B5" xr:uid="{002301CA-8C19-462A-B964-92FEDE727023}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{591E01F0-BD1A-45F0-AE1D-9719A62E5F39}" name="Person Responsible"/>
@@ -990,19 +1559,54 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="N5" dT="2024-12-06T01:24:11.10" personId="{22874DDA-887B-4910-A523-4D8F9B99BF0F}" id="{195777E9-59E0-419E-AACE-2F95DAE1E37C}">
+    <text xml:space="preserve">It does nothing when not logged in, when clicked, it takes user to login screen.
+If the user is logged in, it shows the bookings/reservations
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B4" dT="2024-12-06T01:48:18.06" personId="{22874DDA-887B-4910-A523-4D8F9B99BF0F}" id="{C911FD5F-2E1F-4B1D-8ED5-16580EAC6379}">
+    <text xml:space="preserve">Session Attributes
+</text>
+  </threadedComment>
+  <threadedComment ref="B5" dT="2024-12-06T01:35:55.19" personId="{22874DDA-887B-4910-A523-4D8F9B99BF0F}" id="{24CD8218-28DA-4567-8477-9079C4078A13}">
+    <text xml:space="preserve">By default role will be customer
+</text>
+  </threadedComment>
+  <threadedComment ref="B5" dT="2024-12-06T01:53:08.86" personId="{22874DDA-887B-4910-A523-4D8F9B99BF0F}" id="{DA658A28-F2FC-4E82-8C02-68C19070F546}" parentId="{24CD8218-28DA-4567-8477-9079C4078A13}">
+    <text xml:space="preserve">Continue
+</text>
+  </threadedComment>
+  <threadedComment ref="B15" dT="2024-12-06T01:35:55.19" personId="{22874DDA-887B-4910-A523-4D8F9B99BF0F}" id="{17B30268-7970-48CC-956C-C5091A27E02D}">
+    <text xml:space="preserve">By default role will be customer
+</text>
+  </threadedComment>
+  <threadedComment ref="B15" dT="2024-12-06T01:53:08.86" personId="{22874DDA-887B-4910-A523-4D8F9B99BF0F}" id="{B0588600-5CE0-4619-A175-E65DF99369FE}" parentId="{17B30268-7970-48CC-956C-C5091A27E02D}">
+    <text xml:space="preserve">Continue
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDD5CFB-6C9B-4486-8CC8-594A2B8C8BF1}">
   <dimension ref="B1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="15"/>
       <c r="D1" s="15"/>
@@ -1014,9 +1618,9 @@
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>28</v>
+    <row r="4" spans="2:5" ht="21" x14ac:dyDescent="0.4">
+      <c r="B4" s="27" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1029,6 +1633,387 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CE731E-15CD-4F9B-8360-C435201A77A5}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="81.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="26"/>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="26"/>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="26"/>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="26"/>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="26"/>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Done"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"In Progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"Yet to Start"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E3BED43F-8B19-456B-A70A-EA9EE862E9BC}">
+          <x14:formula1>
+            <xm:f>Status!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DC481961-0614-48E5-88B5-F90B4DC4E035}">
+          <x14:formula1>
+            <xm:f>Status!$C$1:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D30</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4692F99-8D83-4CAF-A892-7034E4A0A131}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -1156,11 +2141,110 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B296FA18-9182-40FA-975B-87B95D17536E}">
-  <dimension ref="A1:B5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8894076-29C3-47D8-867F-B1EC04517F4D}">
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="38.109375" customWidth="1"/>
+    <col min="12" max="12" width="27.21875" customWidth="1"/>
+    <col min="13" max="13" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K10" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L11" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="15:18" x14ac:dyDescent="0.3">
+      <c r="O20" s="16"/>
+      <c r="R20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B296FA18-9182-40FA-975B-87B95D17536E}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1170,25 +2254,25 @@
   <sheetData>
     <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
+      <c r="B2" s="19" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="18" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1196,7 +2280,7 @@
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="20" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1204,14 +2288,105 @@
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D0757C-6DBB-4E27-8B11-926E46CD4EFC}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>